--- a/Planejamento/Processo de ideação Grupo D - PJI2 (1).xlsx
+++ b/Planejamento/Processo de ideação Grupo D - PJI2 (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Érico Pessoa Felix\Dropbox\SALTOBOTZ\PJI2\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E05F878-571B-4C8C-88F7-DDA89C023D54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{000C1980-7663-4066-9622-D6E89928AC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{02DB64CF-2FED-41CE-BC3E-0BE2A34F6E8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="4" activeTab="2" xr2:uid="{02DB64CF-2FED-41CE-BC3E-0BE2A34F6E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados do grupo" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>Nomes dos Integrantes do grupo:</t>
   </si>
@@ -199,7 +200,7 @@
     <t>Em uma estrutura de MDF, colocariamos um diplay touch (Diplay Nextion), controlado por um ESP8266</t>
   </si>
   <si>
-    <t>Em uma estrutura de MDF, colocariamos um display touch (Display nextion) controlado por um Arduino, um sensor de temperatura GY-906, e um borrifador de álcool com um servo motor</t>
+    <t xml:space="preserve">Em uma estrutura de MDF cortada com uma tico-tico e montada com parafusos, colocariamos um monitor ligado a um Raspberry Pi que mostraria a interface de um programa desenvolvido em Java, essa interface seria responsável por guiar a pessoa a ser examinada. A checagem de temperatura será feita através de um sensor de de temperatura infravermelho ligado ao raspberry pi e controlado através de um programa desenvolvido em python, que irá interagir com a interface por meio de um arquivo .JSON, a higienização será feita por meio de dois servos motores que apertarão o dispenser para a liberação do álcool, os servos também serão controlados pelo programa em python no raspberry Pi.  </t>
   </si>
   <si>
     <t>Colocariamos um sensor de presença na entrada de um local, quando o limite de pessoas estiver excedido, uma sirene é acionada</t>
@@ -213,9 +214,6 @@
   </si>
   <si>
     <t>Mínimo: R$ 600</t>
-  </si>
-  <si>
-    <t>Mínimo: R$ 700</t>
   </si>
   <si>
     <t>Mínimo: R$ 50</t>
@@ -397,17 +395,15 @@
     <t>Descrever  os materiais, componentes, equipamentos, processos de fabricação, construção, programação, entre outros.</t>
   </si>
   <si>
-    <t>Em uma estrutura de MDF cortada com uma tico-tico e montada com parafusos, colocariamos um display touch (Display nextion) controlado por um Arduino, um sensor de temperatura GY-906, e um borrifador de álcool com um servo motor, programados pela Arduino IDE</t>
-  </si>
-  <si>
     <t>Apresentar um orçamento preliminar do materiais e serviços necessários</t>
   </si>
   <si>
-    <t>Sensor de temperatura GY-906: R$ 149,90 (Mercado Livre) 
-Display nextion Nextion NX8048K070_011 7 polegadas: R$ 525,30 (Banggood) 
- Servo motor: R$ 15,00 (João Pauo)
- Frasco para álcool gel: R% 39,90
-Custo total (Estimado) = R$730,10
+    <t>Monitor Lcd Proview / Aoc Lp 517 15 Polegadas - Seminovo: R$119,90 (Mercado Livre)                                  
+Sensor de temperatura GY-906: R$ 149,90 (Mercado Livre) 
+Servo motor: R$ 15,00 (João Pauo)
+Frasco para álcool gel: R% 39,90
+Raspberry PI 3 - Modelo B+: R$281,10 (Curto Circuito)
+Custo total (Estimado) = R$ 605,80
 *Preços e componentes sugeito a alterações</t>
   </si>
 </sst>
@@ -1160,9 +1156,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1216,6 +1209,14 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1342,11 +1343,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1711,13 +1707,13 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="32">
         <v>1940368</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="36" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="32" t="s">
@@ -1731,13 +1727,13 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="32">
         <v>1940252</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="32" t="s">
@@ -1757,7 +1753,7 @@
       <c r="C4" s="32">
         <v>1940309</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -1795,7 +1791,7 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="34" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="1"/>
@@ -1813,7 +1809,7 @@
       <c r="E11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="34" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1"/>
@@ -1907,7 +1903,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1915,7 +1911,7 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="55" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1923,7 +1919,7 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2051,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F98C8B9-381F-4C66-ABD1-C89AB4D3BCC9}">
   <dimension ref="B1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2077,122 +2073,122 @@
       </c>
     </row>
     <row r="2" spans="3:7" ht="37.5">
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="3:7" ht="98.25" customHeight="1">
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="56" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="45" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="60">
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="56" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="41" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="45">
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="56" t="s">
         <v>43</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="30">
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="56" t="s">
         <v>46</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="75">
-      <c r="C7" s="34" t="s">
+    <row r="7" spans="3:7" ht="195">
+      <c r="C7" s="56" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="45" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="45">
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="56" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="29" t="s">
         <v>57</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2225,521 +2221,521 @@
     <row r="1" spans="2:9" ht="10.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:9" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="B2" s="24"/>
-      <c r="G2" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="55"/>
-      <c r="I2" s="56"/>
+      <c r="G2" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="58"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="2:9" s="5" customFormat="1" ht="40.5" customHeight="1">
       <c r="B3" s="22"/>
       <c r="C3" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="E3" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>64</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="12" customHeight="1">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="60">
+      <c r="D4" s="63">
         <v>1</v>
       </c>
       <c r="E4" s="10">
         <v>5</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="63">
+        <v>66</v>
+      </c>
+      <c r="G4" s="66">
         <v>4</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="66">
         <v>4</v>
       </c>
-      <c r="I4" s="66">
+      <c r="I4" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="12" customHeight="1">
-      <c r="B5" s="90"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="6">
         <v>4</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="67"/>
+        <v>67</v>
+      </c>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="70"/>
     </row>
     <row r="6" spans="2:9" ht="12" customHeight="1">
-      <c r="B6" s="90"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="7">
         <v>3</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="67"/>
+        <v>68</v>
+      </c>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="70"/>
     </row>
     <row r="7" spans="2:9" ht="12" customHeight="1">
-      <c r="B7" s="90"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="64"/>
       <c r="E7" s="8">
         <v>2</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="67"/>
+        <v>69</v>
+      </c>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B8" s="91"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="62"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="65"/>
       <c r="E8" s="9">
         <v>1</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="71"/>
+    </row>
+    <row r="9" spans="2:9" ht="12" customHeight="1">
+      <c r="B9" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="68"/>
-    </row>
-    <row r="9" spans="2:9" ht="12" customHeight="1">
-      <c r="B9" s="89" t="s">
+      <c r="C9" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="60">
+      <c r="D9" s="63">
         <v>1</v>
       </c>
       <c r="E9" s="10">
         <v>5</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="63">
+        <v>73</v>
+      </c>
+      <c r="G9" s="66">
         <v>2</v>
       </c>
-      <c r="H9" s="63">
+      <c r="H9" s="66">
         <v>1</v>
       </c>
-      <c r="I9" s="66">
+      <c r="I9" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="12" customHeight="1">
-      <c r="B10" s="90"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="61"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="64"/>
       <c r="E10" s="6">
         <v>4</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="67"/>
+        <v>74</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="70"/>
     </row>
     <row r="11" spans="2:9" ht="12" customHeight="1">
-      <c r="B11" s="90"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="61"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="64"/>
       <c r="E11" s="7">
         <v>3</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="67"/>
+        <v>75</v>
+      </c>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="70"/>
     </row>
     <row r="12" spans="2:9" ht="12" customHeight="1">
-      <c r="B12" s="90"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="61"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="64"/>
       <c r="E12" s="8">
         <v>2</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="67"/>
+        <v>76</v>
+      </c>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="70"/>
     </row>
     <row r="13" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B13" s="91"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="65"/>
       <c r="E13" s="9">
         <v>1</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="71"/>
+    </row>
+    <row r="14" spans="2:9" ht="12" customHeight="1">
+      <c r="B14" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="68"/>
-    </row>
-    <row r="14" spans="2:9" ht="12" customHeight="1">
-      <c r="B14" s="89" t="s">
+      <c r="C14" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="60">
+      <c r="D14" s="63">
         <v>1</v>
       </c>
       <c r="E14" s="10">
         <v>5</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="63">
+        <v>66</v>
+      </c>
+      <c r="G14" s="66">
         <v>4</v>
       </c>
-      <c r="H14" s="63">
+      <c r="H14" s="66">
         <v>4</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="69">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="12" customHeight="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="6">
         <v>4</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="67"/>
+        <v>67</v>
+      </c>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="70"/>
     </row>
     <row r="16" spans="2:9" ht="12" customHeight="1">
-      <c r="B16" s="90"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="61"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="7">
         <v>3</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="67"/>
+        <v>68</v>
+      </c>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="70"/>
     </row>
     <row r="17" spans="2:9" ht="12" customHeight="1">
-      <c r="B17" s="90"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="8">
         <v>2</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="67"/>
+        <v>80</v>
+      </c>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B18" s="91"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="65"/>
       <c r="E18" s="9">
         <v>1</v>
       </c>
       <c r="F18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="71"/>
+    </row>
+    <row r="19" spans="2:9" ht="12" customHeight="1">
+      <c r="B19" s="95" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="68"/>
-    </row>
-    <row r="19" spans="2:9" ht="12" customHeight="1">
-      <c r="B19" s="92" t="s">
+      <c r="C19" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="60">
+      <c r="D19" s="63">
         <v>1</v>
       </c>
       <c r="E19" s="10">
         <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="80">
+        <v>84</v>
+      </c>
+      <c r="G19" s="83">
         <v>3</v>
       </c>
-      <c r="H19" s="63">
+      <c r="H19" s="66">
         <v>5</v>
       </c>
-      <c r="I19" s="66">
+      <c r="I19" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="12" customHeight="1">
-      <c r="B20" s="90"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="6">
         <v>4</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="81"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="67"/>
+        <v>85</v>
+      </c>
+      <c r="G20" s="84"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="70"/>
     </row>
     <row r="21" spans="2:9" ht="12" customHeight="1">
-      <c r="B21" s="90"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="61"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="7">
         <v>3</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="81"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="67"/>
+        <v>86</v>
+      </c>
+      <c r="G21" s="84"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="70"/>
     </row>
     <row r="22" spans="2:9" ht="12" customHeight="1">
-      <c r="B22" s="90"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="8">
         <v>2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G22" s="81"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="67"/>
+        <v>87</v>
+      </c>
+      <c r="G22" s="84"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="70"/>
     </row>
     <row r="23" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B23" s="90"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="62"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="9">
         <v>1</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="91"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="71"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" s="93"/>
+      <c r="C24" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="88"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="68"/>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="90"/>
-      <c r="C24" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="60">
+      <c r="D24" s="63">
         <v>1</v>
       </c>
       <c r="E24" s="10">
         <v>5</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="G24" s="71">
+        <v>84</v>
+      </c>
+      <c r="G24" s="74">
         <v>3</v>
       </c>
-      <c r="H24" s="74">
+      <c r="H24" s="77">
         <v>4</v>
       </c>
-      <c r="I24" s="77">
+      <c r="I24" s="80">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:9">
-      <c r="B25" s="90"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="61"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="6">
         <v>4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="78"/>
+        <v>85</v>
+      </c>
+      <c r="G25" s="75"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="2:9">
-      <c r="B26" s="90"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="61"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="7">
         <v>3</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="78"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="75"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="2:9">
-      <c r="B27" s="90"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="61"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="8">
         <v>2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="78"/>
+        <v>87</v>
+      </c>
+      <c r="G27" s="75"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="81"/>
     </row>
     <row r="28" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B28" s="90"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="62"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="65"/>
       <c r="E28" s="9">
         <v>1</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="73"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="79"/>
+        <v>88</v>
+      </c>
+      <c r="G28" s="76"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="82"/>
     </row>
     <row r="29" spans="2:9">
-      <c r="B29" s="90"/>
-      <c r="C29" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="60">
+      <c r="B29" s="93"/>
+      <c r="C29" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="63">
         <v>1</v>
       </c>
       <c r="E29" s="10">
         <v>5</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G29" s="80">
+        <v>77</v>
+      </c>
+      <c r="G29" s="83">
         <v>3</v>
       </c>
-      <c r="H29" s="63">
+      <c r="H29" s="66">
         <v>5</v>
       </c>
-      <c r="I29" s="66">
+      <c r="I29" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="2:9">
-      <c r="B30" s="90"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="61"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="6">
         <v>4</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30" s="81"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="67"/>
+        <v>76</v>
+      </c>
+      <c r="G30" s="84"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="70"/>
     </row>
     <row r="31" spans="2:9">
-      <c r="B31" s="90"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="61"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="7">
         <v>3</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="81"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="67"/>
+        <v>75</v>
+      </c>
+      <c r="G31" s="84"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="70"/>
     </row>
     <row r="32" spans="2:9">
-      <c r="B32" s="90"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="61"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="8">
         <v>2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="67"/>
+        <v>74</v>
+      </c>
+      <c r="G32" s="84"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="70"/>
     </row>
     <row r="33" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B33" s="91"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="62"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="65"/>
       <c r="E33" s="9">
         <v>1</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
+        <v>73</v>
+      </c>
+      <c r="G33" s="85"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="87"/>
     </row>
     <row r="34" spans="2:9" ht="15.75" thickBot="1">
       <c r="C34" s="2"/>
@@ -2753,11 +2749,11 @@
     <row r="35" spans="2:9" s="13" customFormat="1" ht="29.25" thickBot="1">
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="86"/>
-      <c r="F35" s="87"/>
+      <c r="D35" s="88" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="89"/>
+      <c r="F35" s="90"/>
       <c r="G35" s="20">
         <f>$D$4*G4+$D$9*G9+$D$14*G14+$D$19*G19+$D$24*G24+$D$29*G29</f>
         <v>19</v>
@@ -2774,11 +2770,11 @@
     <row r="36" spans="2:9" s="13" customFormat="1" ht="29.25" thickBot="1">
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
-      <c r="D36" s="85" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="86"/>
-      <c r="F36" s="87"/>
+      <c r="D36" s="88" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="89"/>
+      <c r="F36" s="90"/>
       <c r="G36" s="21">
         <f>G35/SUM($D4:$D33)</f>
         <v>3.1666666666666665</v>
@@ -2919,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB0537AC-8E5A-411E-A925-D194EDD31008}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2931,93 +2927,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.75">
-      <c r="A1" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="95"/>
+      <c r="A1" s="96" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="97"/>
+      <c r="C1" s="98"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1"/>
     <row r="3" spans="1:3" ht="15.75" thickBot="1">
       <c r="C3" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="56" t="s">
         <v>30</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="133.5" customHeight="1">
+      <c r="A5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="133.5" customHeight="1">
-      <c r="A5" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="50" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="79.5" customHeight="1">
+      <c r="A6" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="79.5" customHeight="1">
-      <c r="A6" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="C6" s="50" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="81.75" customHeight="1" thickBot="1">
+      <c r="A7" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="81.75" customHeight="1" thickBot="1">
-      <c r="A7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="53" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="86.25" customHeight="1">
+      <c r="A8" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="96" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="86.25" customHeight="1">
-      <c r="A8" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="28" t="s">
+      <c r="C8" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="50" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="171" customHeight="1">
+      <c r="A9" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="171" customHeight="1">
-      <c r="A9" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102.75" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C9" s="53" t="s">
+      <c r="C10" s="49" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="102.75" customHeight="1">
-      <c r="A10" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>107</v>
       </c>
     </row>
   </sheetData>
